--- a/x5.xlsx
+++ b/x5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="15192" windowHeight="12528"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="15192" windowHeight="12528" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Waveform" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Максимум</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -51,117 +69,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Waveform!$A$1:$A$8192</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8192"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Waveform!$B$1:$B$8192</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8192"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="199322240"/>
-        <c:axId val="199320704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="199322240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199320704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="199320704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199322240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,26 +356,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="D1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" customHeight="1"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="4:4" ht="14.4" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4" ht="14.4" customHeight="1">
+      <c r="D2" t="e">
+        <f>AVERAGE(B1:B8192)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" customHeight="1"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:5" ht="14.4" customHeight="1">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="3:5" ht="14.4" customHeight="1">
+      <c r="D2">
+        <f>MAX(B1:B4097)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
